--- a/Excel_Results/pH_UL.xlsx
+++ b/Excel_Results/pH_UL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Model_</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -527,6 +527,96 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MAPE_og</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_X_new</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>NMRSE_X_new</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>MAPE_X_new</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_C_new</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>NMRSE_C_new</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MAPE_C_new</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_N_new</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>NMRSE_N_new</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>MAPE_N_new</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_pH_new</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>NMRSE_pH_new</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>MAPE_pH_new</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>AIC_new</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>BIC_new</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_new</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>NMRSE_new</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>MAPE_new</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>t_value_pH_UL</t>
         </is>
       </c>
     </row>
@@ -589,6 +679,186 @@
       </c>
       <c r="S2" t="n">
         <v>7.972262334093423</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Model2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.999999490197824</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>0.1916045932598129</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1953173813621255</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15.73112756341508</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.4996824741820515</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2193064667095056</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.109455022142289</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.07267687114484886</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.572933716762807</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.324738627686737</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.1538708269774571</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.1947731987056419</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.784108967285242</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-89.45284559428846</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-87.86932665583235</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2807815227882198</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.04034032195096889</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.487357545132337</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>72116.69311008597</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Model3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.999997130806487</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>0.1916046854664078</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1953174753554393</v>
+      </c>
+      <c r="V4" t="n">
+        <v>15.73114390224424</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.4996830423199394</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.219306716060482</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.109464646988483</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0726768949811793</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5729339046717962</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.324740893334438</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.1538708788262824</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1947732643370664</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.784110473202808</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-89.45277452742999</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-87.86925558897389</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2807817999308668</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.04034036176848785</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.487364978942493</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>72117.88406508609</v>
       </c>
     </row>
   </sheetData>
